--- a/test-main/src/main/resources/rule1/验证数据.xlsx
+++ b/test-main/src/main/resources/rule1/验证数据.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9630"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -85,7 +85,10 @@
     <t>successed</t>
   </si>
   <si>
-    <t>rule1</t>
+    <t>POC0001</t>
+  </si>
+  <si>
+    <t>POC0001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +119,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,12 +144,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,9 +160,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,8 +532,8 @@
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
@@ -540,7 +558,7 @@
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/test-main/src/main/resources/rule1/验证数据.xlsx
+++ b/test-main/src/main/resources/rule1/验证数据.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DRAW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>188888888888</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -67,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DRAW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>188888888888</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -90,6 +82,15 @@
   <si>
     <t>POC0001</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRADE</t>
+  </si>
+  <si>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>PAY.JY</t>
   </si>
 </sst>
 </file>
@@ -468,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,7 +485,7 @@
     <col min="7" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,13 +505,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -518,48 +522,54 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E3">
         <v>300</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/test-main/src/main/resources/rule1/验证数据.xlsx
+++ b/test-main/src/main/resources/rule1/验证数据.xlsx
@@ -74,9 +74,6 @@
     <t>dataDisposeSehedule</t>
   </si>
   <si>
-    <t>successed</t>
-  </si>
-  <si>
     <t>POC0001</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>PAY.JY</t>
+  </si>
+  <si>
+    <t>SUCCESSED</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -534,13 +534,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -551,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -563,13 +563,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
